--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2213255.647447641</v>
+        <v>2182062.765966581</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6165603.330802534</v>
+        <v>6165603.330802535</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7482974.370840119</v>
+        <v>7482974.370840121</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>299.6041891202114</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5216476038326</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
@@ -676,10 +676,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>145.5577298436975</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>131.9483379309953</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>137.8032355523458</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>101.541326495151</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>10.64392624381802</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>162.4877387246242</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
         <v>411.9429466803539</v>
@@ -916,7 +916,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>137.4035328112962</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>168.5052963341061</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
@@ -1043,7 +1043,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>95.4601258911498</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.8210025100527</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>196.9922742241715</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>137.6109516573023</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>87.42200803729463</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -1220,19 +1220,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>19.18172622600089</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.5578537124857</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>205.2918473928504</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>161.0818660705812</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>411.5609956070679</v>
       </c>
       <c r="H11" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>156.363858050434</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>176.6529755334452</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>185.0804804626582</v>
       </c>
     </row>
     <row r="12">
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>49.02003627125341</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>208.5868485504649</v>
       </c>
       <c r="T13" t="n">
-        <v>10.25182273809369</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>410.0096787829314</v>
@@ -1624,7 +1624,7 @@
         <v>411.5609956070679</v>
       </c>
       <c r="H14" t="n">
-        <v>64.75845976988992</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I14" t="n">
         <v>156.363858050434</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>219.7483147399059</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -1770,25 +1770,25 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>12.46209678013701</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.00316312767904</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>26.0943486274253</v>
+        <v>219.1889263419038</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>411.5609956070679</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I18" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>175.2234863337143</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2019,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I19" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.34362796447564</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>227.7255345875492</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>411.5609956070679</v>
@@ -2101,7 +2101,7 @@
         <v>325.5814052293737</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S20" t="n">
-        <v>160.7160691079535</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>266.7112901833286</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I21" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2256,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I22" t="n">
-        <v>17.10206975953195</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>47.34362796447564</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>208.5868485504649</v>
       </c>
       <c r="T22" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>73.49358404128112</v>
       </c>
     </row>
     <row r="23">
@@ -2323,22 +2323,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>81.65239417175357</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>17.64651753167264</v>
       </c>
       <c r="S23" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>252.2446781610247</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>181.0751025962137</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>378.2098390737216</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>40.0624167645216</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>209.5270849840615</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
         <v>378.1144210805207</v>
@@ -2566,16 +2566,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>198.1302948114865</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>410.7953871538391</v>
+        <v>398.4165955298118</v>
       </c>
       <c r="H26" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>17.64651753167264</v>
       </c>
       <c r="S26" t="n">
         <v>159.2066729054946</v>
@@ -2611,19 +2611,19 @@
         <v>217.0919149789806</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>91.95741414123093</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.2022726584912</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>199.1345641775949</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>390.8378626949542</v>
@@ -2809,7 +2809,7 @@
         <v>410.7953871538391</v>
       </c>
       <c r="H29" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>126.8477381573318</v>
@@ -2842,25 +2842,25 @@
         <v>17.64651753167264</v>
       </c>
       <c r="S29" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>74.41019991626358</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>275.8595519954264</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>32.98016348824731</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>182.4736655200225</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>228.939939463578</v>
@@ -3037,13 +3037,13 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>87.8788406314936</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H32" t="n">
         <v>317.7406176577446</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>17.64651753167264</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U32" t="n">
         <v>252.2446781610247</v>
@@ -3091,13 +3091,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>107.8823268065386</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>36.60709407251454</v>
+        <v>23.13575771972977</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.2022726584912</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>384.2741845622466</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H35" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>17.64651753167264</v>
       </c>
       <c r="S35" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.0919149789806</v>
+        <v>26.7523529893786</v>
       </c>
       <c r="U35" t="n">
         <v>252.2446781610247</v>
@@ -3334,7 +3334,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>128.1187675158256</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>284.290259532294</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>49.83981417109054</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>157.8401176895922</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
         <v>410.7953871538391</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>17.64651753167264</v>
       </c>
       <c r="S38" t="n">
         <v>159.2066729054946</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>358.909580840975</v>
@@ -3571,7 +3571,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>22.69491232079239</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>151.2062443112935</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.2022726584912</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>127.2809062519456</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>222.3425820219438</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>390.8378626949542</v>
@@ -3754,10 +3754,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>410.7953871538391</v>
+        <v>312.6186118086245</v>
       </c>
       <c r="H41" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>126.8477381573318</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>124.6932770481669</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
         <v>389.6064368699203</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.9198098429365</v>
@@ -3906,22 +3906,22 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>126.3646938114851</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>125.9999635998107</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.2022726584912</v>
       </c>
       <c r="I43" t="n">
         <v>127.2809062519456</v>
       </c>
       <c r="J43" t="n">
-        <v>23.06343839047421</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>124.8812755756538</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>17.64651753167264</v>
       </c>
       <c r="S44" t="n">
         <v>159.2066729054946</v>
       </c>
       <c r="T44" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2446781610247</v>
+        <v>49.17225016474632</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>31.68896913703721</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.2022726584912</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>202.601877043025</v>
       </c>
       <c r="T46" t="n">
-        <v>147.4786952542858</v>
+        <v>51.88300720328617</v>
       </c>
       <c r="U46" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>569.8370984499275</v>
+        <v>653.7300077654807</v>
       </c>
       <c r="C2" t="n">
-        <v>569.8370984499275</v>
+        <v>271.796249098288</v>
       </c>
       <c r="D2" t="n">
-        <v>569.8370984499275</v>
+        <v>271.796249098288</v>
       </c>
       <c r="E2" t="n">
-        <v>569.8370984499275</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F2" t="n">
-        <v>559.7263118005019</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G2" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H2" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I2" t="n">
         <v>42.02425610119923</v>
@@ -4357,25 +4357,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S2" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T2" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U2" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="V2" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="W2" t="n">
-        <v>1648.039588413416</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="X2" t="n">
-        <v>1266.009447934909</v>
+        <v>1441.315402707662</v>
       </c>
       <c r="Y2" t="n">
-        <v>872.4675925107471</v>
+        <v>1047.7735472835</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>921.3370166032433</v>
+        <v>782.4983795934554</v>
       </c>
       <c r="C3" t="n">
-        <v>759.6333438441981</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="D3" t="n">
         <v>620.7947068344101</v>
@@ -4421,10 +4421,10 @@
         <v>1122.37000734173</v>
       </c>
       <c r="N3" t="n">
-        <v>1406.916935000113</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O3" t="n">
-        <v>1799.116885784264</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P3" t="n">
         <v>2101.212805059961</v>
@@ -4433,28 +4433,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S3" t="n">
-        <v>1888.629049167647</v>
+        <v>1967.931655634713</v>
       </c>
       <c r="T3" t="n">
-        <v>1699.943945333632</v>
+        <v>1779.246551800699</v>
       </c>
       <c r="U3" t="n">
-        <v>1481.449152931943</v>
+        <v>1560.751759399009</v>
       </c>
       <c r="V3" t="n">
-        <v>1253.053530380276</v>
+        <v>1332.356136847343</v>
       </c>
       <c r="W3" t="n">
-        <v>1253.053530380276</v>
+        <v>1332.356136847343</v>
       </c>
       <c r="X3" t="n">
-        <v>1113.858342953665</v>
+        <v>1134.439148725137</v>
       </c>
       <c r="Y3" t="n">
-        <v>921.3370166032433</v>
+        <v>941.9178223747163</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.02425610119923</v>
+        <v>313.5110011930977</v>
       </c>
       <c r="C4" t="n">
-        <v>42.02425610119923</v>
+        <v>313.5110011930977</v>
       </c>
       <c r="D4" t="n">
-        <v>42.02425610119923</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="E4" t="n">
-        <v>42.02425610119923</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="F4" t="n">
-        <v>42.02425610119923</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="G4" t="n">
         <v>42.02425610119923</v>
@@ -4518,22 +4518,22 @@
         <v>535.5461600008207</v>
       </c>
       <c r="T4" t="n">
-        <v>524.7947193504995</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="U4" t="n">
-        <v>524.7947193504995</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="V4" t="n">
-        <v>264.0594149089221</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="W4" t="n">
-        <v>264.0594149089221</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="X4" t="n">
-        <v>264.0594149089221</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.02425610119923</v>
+        <v>313.5110011930977</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1599.886427633425</v>
+        <v>1519.940290172296</v>
       </c>
       <c r="C5" t="n">
-        <v>1599.886427633425</v>
+        <v>1138.006531505104</v>
       </c>
       <c r="D5" t="n">
-        <v>1599.886427633425</v>
+        <v>973.8775024903316</v>
       </c>
       <c r="E5" t="n">
-        <v>1205.100707739532</v>
+        <v>973.8775024903316</v>
       </c>
       <c r="F5" t="n">
-        <v>790.949517049702</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G5" t="n">
-        <v>374.84553050389</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H5" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I5" t="n">
         <v>42.02425610119923</v>
@@ -4594,25 +4594,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S5" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T5" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U5" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="V5" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="W5" t="n">
-        <v>1738.677874917562</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="X5" t="n">
-        <v>1599.886427633425</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="Y5" t="n">
-        <v>1599.886427633425</v>
+        <v>1913.983829690315</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>557.9768611231002</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C6" t="n">
-        <v>396.2731883640549</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D6" t="n">
-        <v>257.434551354267</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E6" t="n">
-        <v>110.4065414111382</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F6" t="n">
-        <v>110.4065414111382</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G6" t="n">
-        <v>110.4065414111382</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H6" t="n">
         <v>110.4065414111382</v>
@@ -4655,43 +4655,43 @@
         <v>697.5908003646097</v>
       </c>
       <c r="M6" t="n">
-        <v>1182.624153874836</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N6" t="n">
-        <v>1693.889799997958</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O6" t="n">
-        <v>2086.089750782109</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P6" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q6" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R6" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S6" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T6" t="n">
-        <v>1699.943945333632</v>
+        <v>1931.005435025511</v>
       </c>
       <c r="U6" t="n">
-        <v>1481.449152931943</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="V6" t="n">
-        <v>1253.053530380276</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W6" t="n">
-        <v>1011.737661613587</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X6" t="n">
-        <v>813.8206734913811</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y6" t="n">
-        <v>717.396303904361</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C7" t="n">
-        <v>42.02425610119923</v>
+        <v>404.4675318088119</v>
       </c>
       <c r="D7" t="n">
-        <v>42.02425610119923</v>
+        <v>251.3956386365747</v>
       </c>
       <c r="E7" t="n">
-        <v>42.02425610119923</v>
+        <v>251.3956386365747</v>
       </c>
       <c r="F7" t="n">
-        <v>42.02425610119923</v>
+        <v>251.3956386365747</v>
       </c>
       <c r="G7" t="n">
-        <v>42.02425610119923</v>
+        <v>251.3956386365747</v>
       </c>
       <c r="H7" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="I7" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J7" t="n">
         <v>42.02425610119923</v>
@@ -4749,28 +4749,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R7" t="n">
-        <v>424.5617199615099</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S7" t="n">
-        <v>225.5796247855791</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T7" t="n">
-        <v>225.5796247855791</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U7" t="n">
-        <v>225.5796247855791</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V7" t="n">
-        <v>225.5796247855791</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W7" t="n">
-        <v>225.5796247855791</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X7" t="n">
-        <v>225.5796247855791</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.5796247855791</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1707.670949635799</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="C8" t="n">
-        <v>1707.670949635799</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="D8" t="n">
-        <v>1334.846984863023</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="E8" t="n">
-        <v>940.0612649691298</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F8" t="n">
-        <v>929.9504783197042</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G8" t="n">
-        <v>513.8464917738922</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>181.0252173712015</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4828,28 +4828,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2012.907746436431</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059961</v>
+        <v>1825.678771066785</v>
       </c>
       <c r="T8" t="n">
-        <v>2101.212805059961</v>
+        <v>1825.678771066785</v>
       </c>
       <c r="U8" t="n">
-        <v>2101.212805059961</v>
+        <v>1570.793434780779</v>
       </c>
       <c r="V8" t="n">
-        <v>2101.212805059961</v>
+        <v>1233.814160676721</v>
       </c>
       <c r="W8" t="n">
-        <v>2101.212805059961</v>
+        <v>1233.814160676721</v>
       </c>
       <c r="X8" t="n">
-        <v>2101.212805059961</v>
+        <v>851.784020198214</v>
       </c>
       <c r="Y8" t="n">
-        <v>1707.670949635799</v>
+        <v>458.242164774052</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461.879904359699</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C9" t="n">
-        <v>300.1762316006536</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D9" t="n">
-        <v>161.3375945908657</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E9" t="n">
-        <v>161.3375945908657</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>161.3375945908657</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
-        <v>141.9621135545012</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>637.3366538315036</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>895.6512888769911</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409599</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.02425610119923</v>
+        <v>390.5281326627519</v>
       </c>
       <c r="C10" t="n">
-        <v>42.02425610119923</v>
+        <v>220.9121631244322</v>
       </c>
       <c r="D10" t="n">
-        <v>42.02425610119923</v>
+        <v>67.84026995219489</v>
       </c>
       <c r="E10" t="n">
-        <v>42.02425610119923</v>
+        <v>67.84026995219489</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119923</v>
+        <v>67.84026995219489</v>
       </c>
       <c r="G10" t="n">
-        <v>42.02425610119923</v>
+        <v>67.84026995219489</v>
       </c>
       <c r="H10" t="n">
-        <v>42.02425610119923</v>
+        <v>67.84026995219489</v>
       </c>
       <c r="I10" t="n">
-        <v>42.02425610119923</v>
+        <v>67.84026995219489</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4983,31 +4983,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>328.1806575838001</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2135.146367462922</v>
+        <v>1401.234864375212</v>
       </c>
       <c r="C11" t="n">
-        <v>2135.146367462922</v>
+        <v>1019.301105708019</v>
       </c>
       <c r="D11" t="n">
-        <v>1762.322402690145</v>
+        <v>1019.301105708019</v>
       </c>
       <c r="E11" t="n">
-        <v>1367.536682796252</v>
+        <v>624.5153858141257</v>
       </c>
       <c r="F11" t="n">
-        <v>953.3854921064224</v>
+        <v>624.5153858141257</v>
       </c>
       <c r="G11" t="n">
-        <v>537.6673147255457</v>
+        <v>208.797208433249</v>
       </c>
       <c r="H11" t="n">
         <v>208.797208433249</v>
@@ -5041,19 +5041,19 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J11" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K11" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L11" t="n">
-        <v>850.7433998907119</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M11" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N11" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O11" t="n">
         <v>2124.896977382889</v>
@@ -5065,28 +5065,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R11" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S11" t="n">
-        <v>2297.855323089771</v>
+        <v>2364.258524637049</v>
       </c>
       <c r="T11" t="n">
-        <v>2297.855323089771</v>
+        <v>2364.258524637049</v>
       </c>
       <c r="U11" t="n">
-        <v>2297.855323089771</v>
+        <v>2364.258524637049</v>
       </c>
       <c r="V11" t="n">
-        <v>2297.855323089771</v>
+        <v>2364.258524637049</v>
       </c>
       <c r="W11" t="n">
-        <v>2297.855323089771</v>
+        <v>2364.258524637049</v>
       </c>
       <c r="X11" t="n">
-        <v>2297.855323089771</v>
+        <v>1982.228384158542</v>
       </c>
       <c r="Y11" t="n">
-        <v>2297.855323089771</v>
+        <v>1795.278403893231</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>210.0732042050868</v>
       </c>
       <c r="H12" t="n">
-        <v>112.1289883137697</v>
+        <v>112.1289883137699</v>
       </c>
       <c r="I12" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J12" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K12" t="n">
-        <v>392.3832078845233</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L12" t="n">
-        <v>802.1338407649491</v>
+        <v>722.7650590219088</v>
       </c>
       <c r="M12" t="n">
-        <v>1338.430017546049</v>
+        <v>1259.061235803009</v>
       </c>
       <c r="N12" t="n">
-        <v>1902.315261334734</v>
+        <v>1822.946479591694</v>
       </c>
       <c r="O12" t="n">
-        <v>2201.966047520445</v>
+        <v>2263.283082167001</v>
       </c>
       <c r="P12" t="n">
         <v>2542.695873660731</v>
@@ -5147,7 +5147,7 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S12" t="n">
-        <v>2346.762917934841</v>
+        <v>2346.762917934842</v>
       </c>
       <c r="T12" t="n">
         <v>2158.909856151447</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.85391747321462</v>
+        <v>253.4409987982331</v>
       </c>
       <c r="C13" t="n">
-        <v>50.85391747321462</v>
+        <v>253.4409987982331</v>
       </c>
       <c r="D13" t="n">
-        <v>50.85391747321462</v>
+        <v>100.3691056259958</v>
       </c>
       <c r="E13" t="n">
         <v>50.85391747321462</v>
@@ -5220,31 +5220,31 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q13" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R13" t="n">
-        <v>559.0838802267906</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S13" t="n">
-        <v>348.3900938121795</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="T13" t="n">
-        <v>338.0347173090546</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="U13" t="n">
-        <v>50.85391747321462</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="V13" t="n">
-        <v>50.85391747321462</v>
+        <v>253.4409987982331</v>
       </c>
       <c r="W13" t="n">
-        <v>50.85391747321462</v>
+        <v>253.4409987982331</v>
       </c>
       <c r="X13" t="n">
-        <v>50.85391747321462</v>
+        <v>253.4409987982331</v>
       </c>
       <c r="Y13" t="n">
-        <v>50.85391747321462</v>
+        <v>253.4409987982331</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2253.622605463969</v>
+        <v>1367.536682796252</v>
       </c>
       <c r="C14" t="n">
-        <v>1871.688846796776</v>
+        <v>1367.536682796252</v>
       </c>
       <c r="D14" t="n">
-        <v>1498.864882024</v>
+        <v>1367.536682796252</v>
       </c>
       <c r="E14" t="n">
-        <v>1104.079162130107</v>
+        <v>1367.536682796252</v>
       </c>
       <c r="F14" t="n">
-        <v>689.9279714402771</v>
+        <v>953.3854921064224</v>
       </c>
       <c r="G14" t="n">
-        <v>274.2097940594004</v>
+        <v>537.6673147255457</v>
       </c>
       <c r="H14" t="n">
         <v>208.797208433249</v>
@@ -5278,13 +5278,13 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J14" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K14" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L14" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907115</v>
       </c>
       <c r="M14" t="n">
         <v>1310.379159876956</v>
@@ -5302,28 +5302,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R14" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S14" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T14" t="n">
-        <v>2253.622605463969</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="U14" t="n">
-        <v>2253.622605463969</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="V14" t="n">
-        <v>2253.622605463969</v>
+        <v>1983.046532907188</v>
       </c>
       <c r="W14" t="n">
-        <v>2253.622605463969</v>
+        <v>1983.046532907188</v>
       </c>
       <c r="X14" t="n">
-        <v>2253.622605463969</v>
+        <v>1761.078538220414</v>
       </c>
       <c r="Y14" t="n">
-        <v>2253.622605463969</v>
+        <v>1367.536682796252</v>
       </c>
     </row>
     <row r="15">
@@ -5333,70 +5333,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.8593958421045</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C15" t="n">
-        <v>759.1557230830592</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D15" t="n">
-        <v>620.3170860732713</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E15" t="n">
-        <v>473.2890761301425</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F15" t="n">
-        <v>338.5952780800169</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G15" t="n">
-        <v>210.0732042050874</v>
+        <v>210.0732042050868</v>
       </c>
       <c r="H15" t="n">
-        <v>112.1289883137705</v>
+        <v>112.1289883137699</v>
       </c>
       <c r="I15" t="n">
-        <v>50.85391747321523</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J15" t="n">
-        <v>50.85391747321523</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K15" t="n">
-        <v>68.10001809715425</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L15" t="n">
-        <v>477.85065097758</v>
+        <v>661.4480243753518</v>
       </c>
       <c r="M15" t="n">
-        <v>1014.14682775868</v>
+        <v>1197.744201156452</v>
       </c>
       <c r="N15" t="n">
-        <v>1578.032071547365</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O15" t="n">
-        <v>2018.368674122672</v>
+        <v>2201.966047520444</v>
       </c>
       <c r="P15" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q15" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R15" t="n">
         <v>2495.728130619192</v>
       </c>
       <c r="S15" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T15" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U15" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V15" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W15" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X15" t="n">
         <v>1272.800164973786</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>583.1297470766741</v>
+        <v>438.7136881718207</v>
       </c>
       <c r="C16" t="n">
-        <v>413.5137775383544</v>
+        <v>269.097718633501</v>
       </c>
       <c r="D16" t="n">
-        <v>260.4418843661171</v>
+        <v>269.097718633501</v>
       </c>
       <c r="E16" t="n">
-        <v>108.4328701274359</v>
+        <v>269.097718633501</v>
       </c>
       <c r="F16" t="n">
-        <v>108.4328701274359</v>
+        <v>256.5097420879081</v>
       </c>
       <c r="G16" t="n">
-        <v>108.4328701274359</v>
+        <v>256.5097420879081</v>
       </c>
       <c r="H16" t="n">
-        <v>50.85391747321462</v>
+        <v>98.67576390197789</v>
       </c>
       <c r="I16" t="n">
-        <v>50.85391747321462</v>
+        <v>98.67576390197789</v>
       </c>
       <c r="J16" t="n">
         <v>50.85391747321462</v>
@@ -5460,28 +5460,28 @@
         <v>724.8700896544216</v>
       </c>
       <c r="R16" t="n">
-        <v>583.1297470766741</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S16" t="n">
-        <v>583.1297470766741</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T16" t="n">
-        <v>583.1297470766741</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U16" t="n">
-        <v>583.1297470766741</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="V16" t="n">
-        <v>583.1297470766741</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="W16" t="n">
-        <v>583.1297470766741</v>
+        <v>438.7136881718207</v>
       </c>
       <c r="X16" t="n">
-        <v>583.1297470766741</v>
+        <v>438.7136881718207</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.1297470766741</v>
+        <v>438.7136881718207</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2148.652334142711</v>
+        <v>1174.788448007335</v>
       </c>
       <c r="C17" t="n">
-        <v>1766.718575475519</v>
+        <v>1174.788448007335</v>
       </c>
       <c r="D17" t="n">
-        <v>1393.894610702742</v>
+        <v>1174.788448007335</v>
       </c>
       <c r="E17" t="n">
-        <v>1367.536682796252</v>
+        <v>953.3854921064224</v>
       </c>
       <c r="F17" t="n">
         <v>953.3854921064224</v>
@@ -5548,19 +5548,19 @@
         <v>2542.695873660731</v>
       </c>
       <c r="U17" t="n">
-        <v>2542.695873660731</v>
+        <v>2287.84140210792</v>
       </c>
       <c r="V17" t="n">
-        <v>2542.695873660731</v>
+        <v>1950.862128003861</v>
       </c>
       <c r="W17" t="n">
-        <v>2542.695873660731</v>
+        <v>1950.862128003861</v>
       </c>
       <c r="X17" t="n">
-        <v>2542.695873660731</v>
+        <v>1568.831987525354</v>
       </c>
       <c r="Y17" t="n">
-        <v>2542.695873660731</v>
+        <v>1568.831987525354</v>
       </c>
     </row>
     <row r="18">
@@ -5594,16 +5594,16 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J18" t="n">
-        <v>50.85391747321462</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K18" t="n">
-        <v>68.10001809715379</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L18" t="n">
-        <v>477.8506509775796</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M18" t="n">
-        <v>1014.14682775868</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N18" t="n">
         <v>1578.032071547365</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>237.6744007828319</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="C19" t="n">
-        <v>237.6744007828319</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="D19" t="n">
-        <v>237.6744007828319</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="E19" t="n">
-        <v>237.6744007828319</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="F19" t="n">
-        <v>237.6744007828319</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="G19" t="n">
-        <v>237.6744007828319</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="H19" t="n">
-        <v>237.6744007828319</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I19" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J19" t="n">
         <v>50.85391747321462</v>
@@ -5694,31 +5694,31 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q19" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R19" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S19" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T19" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U19" t="n">
-        <v>700.8242228045381</v>
+        <v>494.8442971417456</v>
       </c>
       <c r="V19" t="n">
-        <v>700.8242228045381</v>
+        <v>494.8442971417456</v>
       </c>
       <c r="W19" t="n">
-        <v>414.6678213219372</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="X19" t="n">
-        <v>414.6678213219372</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="Y19" t="n">
-        <v>414.6678213219372</v>
+        <v>208.6878956591448</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1986.312870397304</v>
+        <v>1335.319250773615</v>
       </c>
       <c r="C20" t="n">
-        <v>1604.379111730111</v>
+        <v>953.3854921064224</v>
       </c>
       <c r="D20" t="n">
-        <v>1604.379111730111</v>
+        <v>953.3854921064224</v>
       </c>
       <c r="E20" t="n">
-        <v>1209.593391836218</v>
+        <v>953.3854921064224</v>
       </c>
       <c r="F20" t="n">
-        <v>795.442201146388</v>
+        <v>953.3854921064224</v>
       </c>
       <c r="G20" t="n">
-        <v>379.7240237655113</v>
+        <v>537.6673147255457</v>
       </c>
       <c r="H20" t="n">
-        <v>50.85391747321461</v>
+        <v>208.797208433249</v>
       </c>
       <c r="I20" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J20" t="n">
-        <v>154.9459054532631</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K20" t="n">
-        <v>443.1860302481632</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L20" t="n">
-        <v>850.7433998907115</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M20" t="n">
         <v>1310.379159876956</v>
@@ -5773,31 +5773,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q20" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R20" t="n">
-        <v>2542.69587366073</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="S20" t="n">
-        <v>2380.356409915323</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="T20" t="n">
-        <v>2380.356409915323</v>
+        <v>2253.622605463969</v>
       </c>
       <c r="U20" t="n">
-        <v>2380.356409915323</v>
+        <v>1998.768133911158</v>
       </c>
       <c r="V20" t="n">
-        <v>2380.356409915323</v>
+        <v>1998.768133911158</v>
       </c>
       <c r="W20" t="n">
-        <v>2380.356409915323</v>
+        <v>1998.768133911158</v>
       </c>
       <c r="X20" t="n">
-        <v>2380.356409915323</v>
+        <v>1729.362790291634</v>
       </c>
       <c r="Y20" t="n">
-        <v>2380.356409915323</v>
+        <v>1729.362790291634</v>
       </c>
     </row>
     <row r="21">
@@ -5828,19 +5828,19 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I21" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J21" t="n">
         <v>130.2226992162549</v>
       </c>
       <c r="K21" t="n">
-        <v>130.2226992162549</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L21" t="n">
-        <v>477.8506509775796</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M21" t="n">
-        <v>1014.14682775868</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N21" t="n">
         <v>1578.032071547365</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1933.776365847208</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="C22" t="n">
-        <v>1933.776365847208</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="D22" t="n">
-        <v>1933.776365847208</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="E22" t="n">
-        <v>1933.776365847208</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="F22" t="n">
-        <v>1933.776365847208</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="G22" t="n">
-        <v>1933.776365847208</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="H22" t="n">
-        <v>1933.776365847208</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I22" t="n">
-        <v>1916.501547908287</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J22" t="n">
-        <v>1868.679701479523</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K22" t="n">
-        <v>1921.990277595404</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L22" t="n">
-        <v>2047.814749438794</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M22" t="n">
-        <v>2192.396460158354</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N22" t="n">
-        <v>2336.774798422276</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O22" t="n">
-        <v>2459.213008798717</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P22" t="n">
-        <v>2542.69587366073</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q22" t="n">
-        <v>2518.650006810847</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R22" t="n">
-        <v>2376.909664233099</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S22" t="n">
-        <v>2166.215877818488</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="T22" t="n">
-        <v>1933.776365847208</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="U22" t="n">
-        <v>1933.776365847208</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="V22" t="n">
-        <v>1933.776365847208</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="W22" t="n">
-        <v>1933.776365847208</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="X22" t="n">
-        <v>1933.776365847208</v>
+        <v>282.9238391351863</v>
       </c>
       <c r="Y22" t="n">
-        <v>1933.776365847208</v>
+        <v>208.6878956591448</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>905.787574617889</v>
+        <v>1802.497218549459</v>
       </c>
       <c r="C23" t="n">
-        <v>523.8538159506963</v>
+        <v>1420.563459882266</v>
       </c>
       <c r="D23" t="n">
-        <v>151.0298511779199</v>
+        <v>1420.563459882266</v>
       </c>
       <c r="E23" t="n">
-        <v>151.0298511779199</v>
+        <v>1025.777739988373</v>
       </c>
       <c r="F23" t="n">
-        <v>151.0298511779199</v>
+        <v>611.6265492985435</v>
       </c>
       <c r="G23" t="n">
-        <v>151.0298511779199</v>
+        <v>196.6817137896151</v>
       </c>
       <c r="H23" t="n">
-        <v>151.0298511779199</v>
+        <v>196.6817137896151</v>
       </c>
       <c r="I23" t="n">
         <v>68.55268534786579</v>
       </c>
       <c r="J23" t="n">
-        <v>236.974933180568</v>
+        <v>236.9749331805679</v>
       </c>
       <c r="K23" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950433</v>
       </c>
       <c r="L23" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M23" t="n">
-        <v>1741.522943506782</v>
+        <v>1741.522943506783</v>
       </c>
       <c r="N23" t="n">
         <v>2322.568598257194</v>
@@ -6016,25 +6016,25 @@
         <v>3409.809502209782</v>
       </c>
       <c r="S23" t="n">
-        <v>3248.994681093121</v>
+        <v>3409.809502209782</v>
       </c>
       <c r="T23" t="n">
-        <v>3029.70991848809</v>
+        <v>3409.809502209782</v>
       </c>
       <c r="U23" t="n">
-        <v>2774.917314285035</v>
+        <v>3155.016898006726</v>
       </c>
       <c r="V23" t="n">
-        <v>2437.938040180976</v>
+        <v>2972.112753970147</v>
       </c>
       <c r="W23" t="n">
-        <v>2075.403110038577</v>
+        <v>2972.112753970147</v>
       </c>
       <c r="X23" t="n">
-        <v>1693.37296956007</v>
+        <v>2590.08261349164</v>
       </c>
       <c r="Y23" t="n">
-        <v>1299.831114135908</v>
+        <v>2196.540758067478</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J24" t="n">
-        <v>68.55268534786579</v>
+        <v>186.2361291527469</v>
       </c>
       <c r="K24" t="n">
-        <v>68.55268534786579</v>
+        <v>513.8824979542864</v>
       </c>
       <c r="L24" t="n">
-        <v>566.35713863456</v>
+        <v>1011.686951240981</v>
       </c>
       <c r="M24" t="n">
-        <v>1205.407970599382</v>
+        <v>1650.737783205802</v>
       </c>
       <c r="N24" t="n">
-        <v>1874.767479538482</v>
+        <v>1703.183656364749</v>
       </c>
       <c r="O24" t="n">
-        <v>2411.592428656135</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P24" t="n">
-        <v>2506.667490147568</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q24" t="n">
         <v>2506.667490147568</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.55268534786579</v>
+        <v>559.6403414406265</v>
       </c>
       <c r="C25" t="n">
-        <v>68.55268534786579</v>
+        <v>390.0243719023067</v>
       </c>
       <c r="D25" t="n">
-        <v>68.55268534786579</v>
+        <v>236.9524787300695</v>
       </c>
       <c r="E25" t="n">
-        <v>68.55268534786579</v>
+        <v>236.9524787300695</v>
       </c>
       <c r="F25" t="n">
-        <v>68.55268534786579</v>
+        <v>236.9524787300695</v>
       </c>
       <c r="G25" t="n">
         <v>68.55268534786579</v>
@@ -6180,19 +6180,19 @@
         <v>1032.019166068125</v>
       </c>
       <c r="U25" t="n">
-        <v>991.5520784271937</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="V25" t="n">
-        <v>991.5520784271937</v>
+        <v>771.2838616265472</v>
       </c>
       <c r="W25" t="n">
-        <v>705.3956769445928</v>
+        <v>559.6403414406265</v>
       </c>
       <c r="X25" t="n">
-        <v>474.1432128399686</v>
+        <v>559.6403414406265</v>
       </c>
       <c r="Y25" t="n">
-        <v>252.1080540322456</v>
+        <v>559.6403414406265</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1909.427757626529</v>
+        <v>1661.86436018445</v>
       </c>
       <c r="C26" t="n">
-        <v>1527.493998959337</v>
+        <v>1279.930601517257</v>
       </c>
       <c r="D26" t="n">
-        <v>1527.493998959337</v>
+        <v>1279.930601517257</v>
       </c>
       <c r="E26" t="n">
-        <v>1132.708279065444</v>
+        <v>885.144881623364</v>
       </c>
       <c r="F26" t="n">
-        <v>932.5766681447501</v>
+        <v>470.9936909335343</v>
       </c>
       <c r="G26" t="n">
-        <v>517.6318326358218</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H26" t="n">
-        <v>196.6817137896151</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I26" t="n">
         <v>68.55268534786579</v>
       </c>
       <c r="J26" t="n">
-        <v>236.9749331805676</v>
+        <v>236.974933180568</v>
       </c>
       <c r="K26" t="n">
-        <v>621.6294415950427</v>
+        <v>621.6294415950431</v>
       </c>
       <c r="L26" t="n">
         <v>1148.797379660662</v>
@@ -6250,28 +6250,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R26" t="n">
-        <v>3427.63426739329</v>
+        <v>3409.809502209782</v>
       </c>
       <c r="S26" t="n">
-        <v>3266.819446276628</v>
+        <v>3248.994681093121</v>
       </c>
       <c r="T26" t="n">
-        <v>3047.534683671597</v>
+        <v>3029.70991848809</v>
       </c>
       <c r="U26" t="n">
-        <v>3047.534683671597</v>
+        <v>2774.917314285035</v>
       </c>
       <c r="V26" t="n">
-        <v>3047.534683671597</v>
+        <v>2437.938040180976</v>
       </c>
       <c r="W26" t="n">
-        <v>2684.999753529198</v>
+        <v>2437.938040180976</v>
       </c>
       <c r="X26" t="n">
-        <v>2302.969613050691</v>
+        <v>2055.907899702469</v>
       </c>
       <c r="Y26" t="n">
-        <v>1909.427757626529</v>
+        <v>2055.907899702469</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1840.868797869529</v>
+        <v>919.9020206238073</v>
       </c>
       <c r="C27" t="n">
-        <v>1679.165125110484</v>
+        <v>758.198347864762</v>
       </c>
       <c r="D27" t="n">
-        <v>1540.326488100696</v>
+        <v>619.3597108549741</v>
       </c>
       <c r="E27" t="n">
-        <v>1393.298478157567</v>
+        <v>472.3317009118452</v>
       </c>
       <c r="F27" t="n">
-        <v>1258.604680107441</v>
+        <v>337.6379028617196</v>
       </c>
       <c r="G27" t="n">
-        <v>1130.496380612394</v>
+        <v>209.5296033666726</v>
       </c>
       <c r="H27" t="n">
-        <v>1036.548354126785</v>
+        <v>115.581576881063</v>
       </c>
       <c r="I27" t="n">
-        <v>989.5194625935875</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J27" t="n">
-        <v>989.5194625935875</v>
+        <v>186.2361291527469</v>
       </c>
       <c r="K27" t="n">
-        <v>989.5194625935875</v>
+        <v>513.8824979542864</v>
       </c>
       <c r="L27" t="n">
-        <v>1164.228746568301</v>
+        <v>1011.686951240981</v>
       </c>
       <c r="M27" t="n">
-        <v>1803.279578533123</v>
+        <v>1650.737783205802</v>
       </c>
       <c r="N27" t="n">
-        <v>2472.639087472223</v>
+        <v>1703.183656364749</v>
       </c>
       <c r="O27" t="n">
-        <v>3009.464036589876</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P27" t="n">
-        <v>3427.63426739329</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q27" t="n">
-        <v>3427.63426739329</v>
+        <v>2506.667490147568</v>
       </c>
       <c r="R27" t="n">
-        <v>3406.356831902701</v>
+        <v>2485.39005465698</v>
       </c>
       <c r="S27" t="n">
-        <v>3265.077296844677</v>
+        <v>2344.110519598956</v>
       </c>
       <c r="T27" t="n">
-        <v>3078.892036180194</v>
+        <v>2157.925258934473</v>
       </c>
       <c r="U27" t="n">
-        <v>2860.438046441772</v>
+        <v>1939.471269196051</v>
       </c>
       <c r="V27" t="n">
-        <v>2632.042423890106</v>
+        <v>1711.075646644385</v>
       </c>
       <c r="W27" t="n">
-        <v>2390.726555123416</v>
+        <v>1469.759777877695</v>
       </c>
       <c r="X27" t="n">
-        <v>2192.809567001211</v>
+        <v>1271.842789755489</v>
       </c>
       <c r="Y27" t="n">
-        <v>2000.28824065079</v>
+        <v>1079.321463405068</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>331.0549317965198</v>
+        <v>543.7112633308629</v>
       </c>
       <c r="C28" t="n">
-        <v>161.4389622582001</v>
+        <v>543.7112633308629</v>
       </c>
       <c r="D28" t="n">
-        <v>68.55268534786579</v>
+        <v>543.7112633308629</v>
       </c>
       <c r="E28" t="n">
-        <v>68.55268534786579</v>
+        <v>391.7022490921817</v>
       </c>
       <c r="F28" t="n">
-        <v>68.55268534786579</v>
+        <v>391.7022490921817</v>
       </c>
       <c r="G28" t="n">
-        <v>68.55268534786579</v>
+        <v>223.3024557099781</v>
       </c>
       <c r="H28" t="n">
         <v>68.55268534786579</v>
@@ -6411,25 +6411,25 @@
         <v>1032.019166068125</v>
       </c>
       <c r="S28" t="n">
-        <v>1032.019166068125</v>
+        <v>830.8731416463115</v>
       </c>
       <c r="T28" t="n">
-        <v>1032.019166068125</v>
+        <v>830.8731416463115</v>
       </c>
       <c r="U28" t="n">
-        <v>1032.019166068125</v>
+        <v>543.7112633308629</v>
       </c>
       <c r="V28" t="n">
-        <v>1032.019166068125</v>
+        <v>543.7112633308629</v>
       </c>
       <c r="W28" t="n">
-        <v>745.8627645855238</v>
+        <v>543.7112633308629</v>
       </c>
       <c r="X28" t="n">
-        <v>514.6103004808996</v>
+        <v>543.7112633308629</v>
       </c>
       <c r="Y28" t="n">
-        <v>514.6103004808996</v>
+        <v>543.7112633308629</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2496.271302168442</v>
+        <v>1802.497218549459</v>
       </c>
       <c r="C29" t="n">
-        <v>2114.337543501249</v>
+        <v>1420.563459882266</v>
       </c>
       <c r="D29" t="n">
-        <v>1741.513578728473</v>
+        <v>1420.563459882266</v>
       </c>
       <c r="E29" t="n">
-        <v>1346.72785883458</v>
+        <v>1025.777739988373</v>
       </c>
       <c r="F29" t="n">
-        <v>932.5766681447501</v>
+        <v>611.6265492985435</v>
       </c>
       <c r="G29" t="n">
-        <v>517.6318326358218</v>
+        <v>196.6817137896151</v>
       </c>
       <c r="H29" t="n">
         <v>196.6817137896151</v>
@@ -6490,25 +6490,25 @@
         <v>3409.809502209782</v>
       </c>
       <c r="S29" t="n">
-        <v>3248.994681093121</v>
+        <v>3409.809502209782</v>
       </c>
       <c r="T29" t="n">
-        <v>3029.70991848809</v>
+        <v>3409.809502209782</v>
       </c>
       <c r="U29" t="n">
-        <v>2774.917314285035</v>
+        <v>3409.809502209782</v>
       </c>
       <c r="V29" t="n">
-        <v>2774.917314285035</v>
+        <v>3334.647684112546</v>
       </c>
       <c r="W29" t="n">
-        <v>2774.917314285035</v>
+        <v>2972.112753970147</v>
       </c>
       <c r="X29" t="n">
-        <v>2496.271302168442</v>
+        <v>2590.08261349164</v>
       </c>
       <c r="Y29" t="n">
-        <v>2496.271302168442</v>
+        <v>2196.540758067478</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>68.55268534786579</v>
       </c>
       <c r="K30" t="n">
-        <v>68.55268534786579</v>
+        <v>396.1990541494053</v>
       </c>
       <c r="L30" t="n">
-        <v>243.2619693225794</v>
+        <v>894.0035074360995</v>
       </c>
       <c r="M30" t="n">
-        <v>882.312801287401</v>
+        <v>1533.054339400921</v>
       </c>
       <c r="N30" t="n">
-        <v>1551.672310226501</v>
+        <v>1585.500212559868</v>
       </c>
       <c r="O30" t="n">
-        <v>2088.497259344154</v>
+        <v>2122.325161677521</v>
       </c>
       <c r="P30" t="n">
-        <v>2506.667490147568</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q30" t="n">
         <v>2506.667490147568</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>253.874996039322</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="C31" t="n">
-        <v>253.874996039322</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="D31" t="n">
-        <v>220.561699586547</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="E31" t="n">
         <v>68.55268534786579</v>
@@ -6648,25 +6648,25 @@
         <v>1032.019166068125</v>
       </c>
       <c r="S31" t="n">
-        <v>1032.019166068125</v>
+        <v>847.702332209516</v>
       </c>
       <c r="T31" t="n">
-        <v>1032.019166068125</v>
+        <v>847.702332209516</v>
       </c>
       <c r="U31" t="n">
-        <v>1032.019166068125</v>
+        <v>560.5404538940675</v>
       </c>
       <c r="V31" t="n">
-        <v>771.2838616265472</v>
+        <v>299.80514945249</v>
       </c>
       <c r="W31" t="n">
-        <v>485.1274601439463</v>
+        <v>299.80514945249</v>
       </c>
       <c r="X31" t="n">
-        <v>253.874996039322</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="Y31" t="n">
-        <v>253.874996039322</v>
+        <v>68.55268534786579</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2041.963943906142</v>
+        <v>1559.20536314297</v>
       </c>
       <c r="C32" t="n">
-        <v>1660.030185238949</v>
+        <v>1177.271604475777</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.206220466173</v>
+        <v>804.4476397030008</v>
       </c>
       <c r="E32" t="n">
-        <v>892.4205005722795</v>
+        <v>804.4476397030008</v>
       </c>
       <c r="F32" t="n">
-        <v>478.2693098824498</v>
+        <v>804.4476397030008</v>
       </c>
       <c r="G32" t="n">
         <v>389.5028041940724</v>
@@ -6700,16 +6700,16 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J32" t="n">
-        <v>236.9749331805683</v>
+        <v>236.9749331805676</v>
       </c>
       <c r="K32" t="n">
-        <v>621.6294415950433</v>
+        <v>621.6294415950427</v>
       </c>
       <c r="L32" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M32" t="n">
-        <v>1741.522943506783</v>
+        <v>1741.522943506782</v>
       </c>
       <c r="N32" t="n">
         <v>2322.568598257194</v>
@@ -6724,28 +6724,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R32" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S32" t="n">
-        <v>3409.809502209782</v>
+        <v>3266.819446276628</v>
       </c>
       <c r="T32" t="n">
-        <v>3409.809502209782</v>
+        <v>3047.534683671597</v>
       </c>
       <c r="U32" t="n">
-        <v>3155.016898006726</v>
+        <v>2792.742079468542</v>
       </c>
       <c r="V32" t="n">
-        <v>2818.037623902668</v>
+        <v>2455.762805364483</v>
       </c>
       <c r="W32" t="n">
-        <v>2818.037623902668</v>
+        <v>2346.790758085151</v>
       </c>
       <c r="X32" t="n">
-        <v>2436.007483424161</v>
+        <v>2346.790758085151</v>
       </c>
       <c r="Y32" t="n">
-        <v>2436.007483424161</v>
+        <v>1953.248902660989</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J33" t="n">
-        <v>68.55268534786579</v>
+        <v>186.2361291527469</v>
       </c>
       <c r="K33" t="n">
-        <v>68.55268534786579</v>
+        <v>186.2361291527469</v>
       </c>
       <c r="L33" t="n">
-        <v>243.2619693225794</v>
+        <v>624.8113720119192</v>
       </c>
       <c r="M33" t="n">
-        <v>882.312801287401</v>
+        <v>1263.862203976741</v>
       </c>
       <c r="N33" t="n">
-        <v>1551.672310226501</v>
+        <v>1316.308077135688</v>
       </c>
       <c r="O33" t="n">
-        <v>2088.497259344154</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P33" t="n">
-        <v>2506.667490147568</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q33" t="n">
         <v>2506.667490147568</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2670.76061891086</v>
+        <v>415.071701334333</v>
       </c>
       <c r="C34" t="n">
-        <v>2501.14464937254</v>
+        <v>415.071701334333</v>
       </c>
       <c r="D34" t="n">
-        <v>2464.167786673031</v>
+        <v>391.7022490921817</v>
       </c>
       <c r="E34" t="n">
-        <v>2464.167786673031</v>
+        <v>391.7022490921817</v>
       </c>
       <c r="F34" t="n">
-        <v>2464.167786673031</v>
+        <v>391.7022490921817</v>
       </c>
       <c r="G34" t="n">
-        <v>2464.167786673031</v>
+        <v>223.3024557099781</v>
       </c>
       <c r="H34" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I34" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J34" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K34" t="n">
-        <v>2556.979174738015</v>
+        <v>161.36407341285</v>
       </c>
       <c r="L34" t="n">
-        <v>2733.351086222692</v>
+        <v>337.7359848975267</v>
       </c>
       <c r="M34" t="n">
-        <v>2931.227984769983</v>
+        <v>535.6128834448182</v>
       </c>
       <c r="N34" t="n">
-        <v>3127.634270415695</v>
+        <v>732.0191690905294</v>
       </c>
       <c r="O34" t="n">
-        <v>3298.128711166522</v>
+        <v>902.5136098413567</v>
       </c>
       <c r="P34" t="n">
-        <v>3422.73198308416</v>
+        <v>1027.116881758995</v>
       </c>
       <c r="Q34" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="R34" t="n">
-        <v>3427.63426739329</v>
+        <v>905.8764634664541</v>
       </c>
       <c r="S34" t="n">
-        <v>3427.63426739329</v>
+        <v>701.2281028169339</v>
       </c>
       <c r="T34" t="n">
-        <v>3427.63426739329</v>
+        <v>701.2281028169339</v>
       </c>
       <c r="U34" t="n">
-        <v>3140.472389077841</v>
+        <v>701.2281028169339</v>
       </c>
       <c r="V34" t="n">
-        <v>3140.472389077841</v>
+        <v>701.2281028169339</v>
       </c>
       <c r="W34" t="n">
-        <v>2854.31598759524</v>
+        <v>415.071701334333</v>
       </c>
       <c r="X34" t="n">
-        <v>2854.31598759524</v>
+        <v>415.071701334333</v>
       </c>
       <c r="Y34" t="n">
-        <v>2854.31598759524</v>
+        <v>415.071701334333</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>905.787574617889</v>
+        <v>1652.406434986593</v>
       </c>
       <c r="C35" t="n">
-        <v>905.787574617889</v>
+        <v>1270.4726763194</v>
       </c>
       <c r="D35" t="n">
-        <v>905.787574617889</v>
+        <v>897.6487115466239</v>
       </c>
       <c r="E35" t="n">
-        <v>905.787574617889</v>
+        <v>897.6487115466239</v>
       </c>
       <c r="F35" t="n">
-        <v>905.787574617889</v>
+        <v>483.4975208567942</v>
       </c>
       <c r="G35" t="n">
-        <v>517.6318326358218</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H35" t="n">
-        <v>196.6817137896151</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I35" t="n">
         <v>68.55268534786579</v>
       </c>
       <c r="J35" t="n">
-        <v>236.974933180568</v>
+        <v>236.9749331805676</v>
       </c>
       <c r="K35" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950427</v>
       </c>
       <c r="L35" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M35" t="n">
-        <v>1741.522943506783</v>
+        <v>1741.522943506782</v>
       </c>
       <c r="N35" t="n">
         <v>2322.568598257194</v>
@@ -6964,25 +6964,25 @@
         <v>3409.809502209782</v>
       </c>
       <c r="S35" t="n">
-        <v>3248.994681093121</v>
+        <v>3409.809502209782</v>
       </c>
       <c r="T35" t="n">
-        <v>3029.70991848809</v>
+        <v>3382.786923432632</v>
       </c>
       <c r="U35" t="n">
-        <v>2774.917314285035</v>
+        <v>3127.994319229576</v>
       </c>
       <c r="V35" t="n">
-        <v>2437.938040180976</v>
+        <v>2791.015045125518</v>
       </c>
       <c r="W35" t="n">
-        <v>2075.403110038577</v>
+        <v>2428.480114983119</v>
       </c>
       <c r="X35" t="n">
-        <v>1693.37296956007</v>
+        <v>2046.449974504612</v>
       </c>
       <c r="Y35" t="n">
-        <v>1299.831114135908</v>
+        <v>2046.449974504612</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>919.9020206238073</v>
+        <v>1840.868797869529</v>
       </c>
       <c r="C36" t="n">
-        <v>758.198347864762</v>
+        <v>1679.165125110484</v>
       </c>
       <c r="D36" t="n">
-        <v>619.3597108549741</v>
+        <v>1540.326488100696</v>
       </c>
       <c r="E36" t="n">
-        <v>472.3317009118452</v>
+        <v>1393.298478157567</v>
       </c>
       <c r="F36" t="n">
-        <v>337.6379028617196</v>
+        <v>1258.604680107441</v>
       </c>
       <c r="G36" t="n">
-        <v>209.5296033666726</v>
+        <v>1130.496380612394</v>
       </c>
       <c r="H36" t="n">
-        <v>115.581576881063</v>
+        <v>1036.548354126785</v>
       </c>
       <c r="I36" t="n">
-        <v>68.55268534786579</v>
+        <v>989.5194625935875</v>
       </c>
       <c r="J36" t="n">
-        <v>186.2361291527469</v>
+        <v>1107.202906398468</v>
       </c>
       <c r="K36" t="n">
-        <v>397.2263905902228</v>
+        <v>1434.849275200008</v>
       </c>
       <c r="L36" t="n">
-        <v>417.7593194713651</v>
+        <v>1932.653728486702</v>
       </c>
       <c r="M36" t="n">
-        <v>1056.810151436187</v>
+        <v>2571.704560451524</v>
       </c>
       <c r="N36" t="n">
-        <v>1726.169660375287</v>
+        <v>2624.15043361047</v>
       </c>
       <c r="O36" t="n">
-        <v>2262.99460949294</v>
+        <v>2774.099803499062</v>
       </c>
       <c r="P36" t="n">
-        <v>2271.303257056754</v>
+        <v>3192.270034302476</v>
       </c>
       <c r="Q36" t="n">
-        <v>2506.667490147568</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="R36" t="n">
-        <v>2485.39005465698</v>
+        <v>3406.356831902701</v>
       </c>
       <c r="S36" t="n">
-        <v>2344.110519598956</v>
+        <v>3265.077296844677</v>
       </c>
       <c r="T36" t="n">
-        <v>2157.925258934473</v>
+        <v>3078.892036180194</v>
       </c>
       <c r="U36" t="n">
-        <v>1939.471269196051</v>
+        <v>2860.438046441772</v>
       </c>
       <c r="V36" t="n">
-        <v>1711.075646644385</v>
+        <v>2632.042423890106</v>
       </c>
       <c r="W36" t="n">
-        <v>1469.759777877695</v>
+        <v>2390.726555123416</v>
       </c>
       <c r="X36" t="n">
-        <v>1271.842789755489</v>
+        <v>2192.809567001211</v>
       </c>
       <c r="Y36" t="n">
-        <v>1079.321463405068</v>
+        <v>2000.28824065079</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>197.9655818284978</v>
+        <v>694.5140411152108</v>
       </c>
       <c r="C37" t="n">
-        <v>197.9655818284978</v>
+        <v>694.5140411152108</v>
       </c>
       <c r="D37" t="n">
-        <v>197.9655818284978</v>
+        <v>541.4421479429735</v>
       </c>
       <c r="E37" t="n">
-        <v>68.55268534786579</v>
+        <v>389.4331337042923</v>
       </c>
       <c r="F37" t="n">
-        <v>68.55268534786579</v>
+        <v>236.9524787300695</v>
       </c>
       <c r="G37" t="n">
         <v>68.55268534786579</v>
@@ -7131,16 +7131,16 @@
         <v>744.857287752676</v>
       </c>
       <c r="V37" t="n">
-        <v>484.1219833110986</v>
+        <v>694.5140411152108</v>
       </c>
       <c r="W37" t="n">
-        <v>197.9655818284978</v>
+        <v>694.5140411152108</v>
       </c>
       <c r="X37" t="n">
-        <v>197.9655818284978</v>
+        <v>694.5140411152108</v>
       </c>
       <c r="Y37" t="n">
-        <v>197.9655818284978</v>
+        <v>694.5140411152108</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1397.689706609483</v>
+        <v>1613.384550286724</v>
       </c>
       <c r="C38" t="n">
-        <v>1015.75594794229</v>
+        <v>1613.384550286724</v>
       </c>
       <c r="D38" t="n">
-        <v>642.9319831695136</v>
+        <v>1613.384550286724</v>
       </c>
       <c r="E38" t="n">
-        <v>483.4975208567942</v>
+        <v>1218.59883039283</v>
       </c>
       <c r="F38" t="n">
-        <v>483.4975208567942</v>
+        <v>804.4476397030008</v>
       </c>
       <c r="G38" t="n">
-        <v>68.55268534786579</v>
+        <v>389.5028041940724</v>
       </c>
       <c r="H38" t="n">
         <v>68.55268534786579</v>
@@ -7174,16 +7174,16 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J38" t="n">
-        <v>236.9749331805676</v>
+        <v>236.974933180568</v>
       </c>
       <c r="K38" t="n">
-        <v>621.6294415950427</v>
+        <v>621.6294415950431</v>
       </c>
       <c r="L38" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M38" t="n">
-        <v>1741.522943506782</v>
+        <v>1741.522943506783</v>
       </c>
       <c r="N38" t="n">
         <v>2322.568598257194</v>
@@ -7198,28 +7198,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R38" t="n">
-        <v>3427.63426739329</v>
+        <v>3409.809502209782</v>
       </c>
       <c r="S38" t="n">
-        <v>3266.819446276628</v>
+        <v>3248.994681093121</v>
       </c>
       <c r="T38" t="n">
-        <v>3266.819446276628</v>
+        <v>3029.70991848809</v>
       </c>
       <c r="U38" t="n">
-        <v>3266.819446276628</v>
+        <v>2774.917314285035</v>
       </c>
       <c r="V38" t="n">
-        <v>2929.84017217257</v>
+        <v>2774.917314285035</v>
       </c>
       <c r="W38" t="n">
-        <v>2567.305242030171</v>
+        <v>2412.382384142636</v>
       </c>
       <c r="X38" t="n">
-        <v>2185.275101551664</v>
+        <v>2030.352243664129</v>
       </c>
       <c r="Y38" t="n">
-        <v>1791.733246127502</v>
+        <v>2007.428089804743</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J39" t="n">
-        <v>68.55268534786579</v>
+        <v>186.2361291527469</v>
       </c>
       <c r="K39" t="n">
-        <v>68.55268534786579</v>
+        <v>513.8824979542864</v>
       </c>
       <c r="L39" t="n">
-        <v>566.35713863456</v>
+        <v>1011.686951240981</v>
       </c>
       <c r="M39" t="n">
-        <v>1205.407970599382</v>
+        <v>1650.737783205802</v>
       </c>
       <c r="N39" t="n">
-        <v>1874.767479538482</v>
+        <v>1703.183656364749</v>
       </c>
       <c r="O39" t="n">
-        <v>2411.592428656135</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P39" t="n">
-        <v>2506.667490147568</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q39" t="n">
         <v>2506.667490147568</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3244.078898708909</v>
+        <v>520.2688210638439</v>
       </c>
       <c r="C40" t="n">
-        <v>3074.46292917059</v>
+        <v>520.2688210638439</v>
       </c>
       <c r="D40" t="n">
-        <v>2921.391035998352</v>
+        <v>520.2688210638439</v>
       </c>
       <c r="E40" t="n">
-        <v>2769.382021759671</v>
+        <v>520.2688210638439</v>
       </c>
       <c r="F40" t="n">
-        <v>2616.901366785448</v>
+        <v>520.2688210638439</v>
       </c>
       <c r="G40" t="n">
-        <v>2464.167786673031</v>
+        <v>351.8690276816402</v>
       </c>
       <c r="H40" t="n">
-        <v>2464.167786673031</v>
+        <v>197.1192573195279</v>
       </c>
       <c r="I40" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J40" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K40" t="n">
-        <v>2556.979174738015</v>
+        <v>161.36407341285</v>
       </c>
       <c r="L40" t="n">
-        <v>2733.351086222692</v>
+        <v>337.7359848975267</v>
       </c>
       <c r="M40" t="n">
-        <v>2931.227984769983</v>
+        <v>535.6128834448182</v>
       </c>
       <c r="N40" t="n">
-        <v>3127.634270415695</v>
+        <v>732.0191690905294</v>
       </c>
       <c r="O40" t="n">
-        <v>3298.128711166522</v>
+        <v>902.5136098413567</v>
       </c>
       <c r="P40" t="n">
-        <v>3422.73198308416</v>
+        <v>1027.116881758995</v>
       </c>
       <c r="Q40" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="R40" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S40" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T40" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="U40" t="n">
-        <v>3427.63426739329</v>
+        <v>744.857287752676</v>
       </c>
       <c r="V40" t="n">
-        <v>3427.63426739329</v>
+        <v>520.2688210638439</v>
       </c>
       <c r="W40" t="n">
-        <v>3427.63426739329</v>
+        <v>520.2688210638439</v>
       </c>
       <c r="X40" t="n">
-        <v>3427.63426739329</v>
+        <v>520.2688210638439</v>
       </c>
       <c r="Y40" t="n">
-        <v>3427.63426739329</v>
+        <v>520.2688210638439</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2496.271302168442</v>
+        <v>1321.394999937605</v>
       </c>
       <c r="C41" t="n">
-        <v>2114.337543501249</v>
+        <v>1321.394999937605</v>
       </c>
       <c r="D41" t="n">
-        <v>1741.513578728473</v>
+        <v>1321.394999937605</v>
       </c>
       <c r="E41" t="n">
-        <v>1346.72785883458</v>
+        <v>926.609280043712</v>
       </c>
       <c r="F41" t="n">
-        <v>932.5766681447501</v>
+        <v>512.4580893538823</v>
       </c>
       <c r="G41" t="n">
-        <v>517.6318326358218</v>
+        <v>196.6817137896151</v>
       </c>
       <c r="H41" t="n">
         <v>196.6817137896151</v>
@@ -7426,7 +7426,7 @@
         <v>2322.568598257194</v>
       </c>
       <c r="O41" t="n">
-        <v>2818.99054420136</v>
+        <v>2818.990544201361</v>
       </c>
       <c r="P41" t="n">
         <v>3210.517730076022</v>
@@ -7441,22 +7441,22 @@
         <v>3409.809502209782</v>
       </c>
       <c r="T41" t="n">
-        <v>3409.809502209782</v>
+        <v>3190.524739604751</v>
       </c>
       <c r="U41" t="n">
-        <v>3409.809502209782</v>
+        <v>3190.524739604751</v>
       </c>
       <c r="V41" t="n">
-        <v>3409.809502209782</v>
+        <v>2853.545465500692</v>
       </c>
       <c r="W41" t="n">
-        <v>3409.809502209782</v>
+        <v>2491.010535358293</v>
       </c>
       <c r="X41" t="n">
-        <v>3283.856697110623</v>
+        <v>2108.980394879786</v>
       </c>
       <c r="Y41" t="n">
-        <v>2890.314841686461</v>
+        <v>1715.438539455624</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1840.868797869529</v>
+        <v>919.9020206238073</v>
       </c>
       <c r="C42" t="n">
-        <v>1679.165125110484</v>
+        <v>758.198347864762</v>
       </c>
       <c r="D42" t="n">
-        <v>1540.326488100696</v>
+        <v>619.3597108549741</v>
       </c>
       <c r="E42" t="n">
-        <v>1393.298478157567</v>
+        <v>472.3317009118452</v>
       </c>
       <c r="F42" t="n">
-        <v>1258.604680107441</v>
+        <v>337.6379028617196</v>
       </c>
       <c r="G42" t="n">
-        <v>1130.496380612394</v>
+        <v>209.5296033666726</v>
       </c>
       <c r="H42" t="n">
-        <v>1036.548354126785</v>
+        <v>115.581576881063</v>
       </c>
       <c r="I42" t="n">
-        <v>989.5194625935875</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J42" t="n">
-        <v>989.5194625935875</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K42" t="n">
-        <v>1317.165831395127</v>
+        <v>396.1990541494053</v>
       </c>
       <c r="L42" t="n">
-        <v>1337.698760276269</v>
+        <v>894.0035074360995</v>
       </c>
       <c r="M42" t="n">
-        <v>1976.749592241091</v>
+        <v>1533.054339400921</v>
       </c>
       <c r="N42" t="n">
-        <v>2646.109101180191</v>
+        <v>1585.500212559868</v>
       </c>
       <c r="O42" t="n">
-        <v>3009.464036589876</v>
+        <v>2088.497259344154</v>
       </c>
       <c r="P42" t="n">
-        <v>3427.63426739329</v>
+        <v>2506.667490147568</v>
       </c>
       <c r="Q42" t="n">
-        <v>3427.63426739329</v>
+        <v>2506.667490147568</v>
       </c>
       <c r="R42" t="n">
-        <v>3406.356831902701</v>
+        <v>2485.39005465698</v>
       </c>
       <c r="S42" t="n">
-        <v>3265.077296844677</v>
+        <v>2344.110519598956</v>
       </c>
       <c r="T42" t="n">
-        <v>3078.892036180194</v>
+        <v>2157.925258934473</v>
       </c>
       <c r="U42" t="n">
-        <v>2860.438046441772</v>
+        <v>1939.471269196051</v>
       </c>
       <c r="V42" t="n">
-        <v>2632.042423890106</v>
+        <v>1711.075646644385</v>
       </c>
       <c r="W42" t="n">
-        <v>2390.726555123416</v>
+        <v>1469.759777877695</v>
       </c>
       <c r="X42" t="n">
-        <v>2192.809567001211</v>
+        <v>1271.842789755489</v>
       </c>
       <c r="Y42" t="n">
-        <v>2000.28824065079</v>
+        <v>1079.321463405068</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>517.6727341325541</v>
+        <v>800.7667019635004</v>
       </c>
       <c r="C43" t="n">
-        <v>348.0567645942343</v>
+        <v>631.1507324251806</v>
       </c>
       <c r="D43" t="n">
-        <v>348.0567645942343</v>
+        <v>631.1507324251806</v>
       </c>
       <c r="E43" t="n">
-        <v>220.4156597341484</v>
+        <v>479.1417181864995</v>
       </c>
       <c r="F43" t="n">
-        <v>220.4156597341484</v>
+        <v>479.1417181864995</v>
       </c>
       <c r="G43" t="n">
-        <v>220.4156597341484</v>
+        <v>351.8690276816402</v>
       </c>
       <c r="H43" t="n">
-        <v>220.4156597341484</v>
+        <v>197.1192573195279</v>
       </c>
       <c r="I43" t="n">
-        <v>91.84908776248621</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J43" t="n">
         <v>68.55268534786579</v>
@@ -7593,28 +7593,28 @@
         <v>1032.019166068125</v>
       </c>
       <c r="R43" t="n">
-        <v>905.8764634664541</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S43" t="n">
-        <v>701.2281028169339</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T43" t="n">
-        <v>701.2281028169339</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="U43" t="n">
-        <v>701.2281028169339</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="V43" t="n">
-        <v>701.2281028169339</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="W43" t="n">
-        <v>701.2281028169339</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="X43" t="n">
-        <v>701.2281028169339</v>
+        <v>800.7667019635004</v>
       </c>
       <c r="Y43" t="n">
-        <v>701.2281028169339</v>
+        <v>800.7667019635004</v>
       </c>
     </row>
     <row r="44">
@@ -7648,22 +7648,22 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J44" t="n">
-        <v>236.9749331805679</v>
+        <v>236.9749331805676</v>
       </c>
       <c r="K44" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950427</v>
       </c>
       <c r="L44" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M44" t="n">
-        <v>1741.522943506783</v>
+        <v>1741.522943506782</v>
       </c>
       <c r="N44" t="n">
         <v>2322.568598257194</v>
       </c>
       <c r="O44" t="n">
-        <v>2818.990544201361</v>
+        <v>2818.99054420136</v>
       </c>
       <c r="P44" t="n">
         <v>3210.517730076022</v>
@@ -7672,25 +7672,25 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R44" t="n">
-        <v>3427.63426739329</v>
+        <v>3409.809502209782</v>
       </c>
       <c r="S44" t="n">
-        <v>3266.819446276628</v>
+        <v>3248.994681093121</v>
       </c>
       <c r="T44" t="n">
-        <v>3047.534683671597</v>
+        <v>3248.994681093121</v>
       </c>
       <c r="U44" t="n">
-        <v>2792.742079468542</v>
+        <v>3199.325741532771</v>
       </c>
       <c r="V44" t="n">
-        <v>2455.762805364483</v>
+        <v>3199.325741532771</v>
       </c>
       <c r="W44" t="n">
-        <v>2093.227875222084</v>
+        <v>2836.790811390372</v>
       </c>
       <c r="X44" t="n">
-        <v>2061.218815487703</v>
+        <v>2454.760670911865</v>
       </c>
       <c r="Y44" t="n">
         <v>2061.218815487703</v>
@@ -7727,22 +7727,22 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J45" t="n">
-        <v>68.55268534786579</v>
+        <v>186.2361291527469</v>
       </c>
       <c r="K45" t="n">
-        <v>68.55268534786579</v>
+        <v>186.2361291527469</v>
       </c>
       <c r="L45" t="n">
-        <v>417.7593194713651</v>
+        <v>684.0405824394411</v>
       </c>
       <c r="M45" t="n">
-        <v>1056.810151436187</v>
+        <v>1263.862203976741</v>
       </c>
       <c r="N45" t="n">
-        <v>1726.169660375287</v>
+        <v>1316.308077135688</v>
       </c>
       <c r="O45" t="n">
-        <v>2262.99460949294</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P45" t="n">
         <v>2271.303257056754</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>391.2405480584227</v>
+        <v>543.7112633308629</v>
       </c>
       <c r="C46" t="n">
-        <v>221.6245785201031</v>
+        <v>543.7112633308629</v>
       </c>
       <c r="D46" t="n">
-        <v>68.55268534786579</v>
+        <v>543.7112633308629</v>
       </c>
       <c r="E46" t="n">
-        <v>68.55268534786579</v>
+        <v>391.7022490921817</v>
       </c>
       <c r="F46" t="n">
-        <v>68.55268534786579</v>
+        <v>391.7022490921817</v>
       </c>
       <c r="G46" t="n">
-        <v>68.55268534786579</v>
+        <v>223.3024557099781</v>
       </c>
       <c r="H46" t="n">
         <v>68.55268534786579</v>
@@ -7836,22 +7836,22 @@
         <v>827.3708054186045</v>
       </c>
       <c r="T46" t="n">
-        <v>678.4024263738713</v>
+        <v>774.9637274354872</v>
       </c>
       <c r="U46" t="n">
-        <v>391.2405480584227</v>
+        <v>774.9637274354872</v>
       </c>
       <c r="V46" t="n">
-        <v>391.2405480584227</v>
+        <v>774.9637274354872</v>
       </c>
       <c r="W46" t="n">
-        <v>391.2405480584227</v>
+        <v>774.9637274354872</v>
       </c>
       <c r="X46" t="n">
-        <v>391.2405480584227</v>
+        <v>543.7112633308629</v>
       </c>
       <c r="Y46" t="n">
-        <v>391.2405480584227</v>
+        <v>543.7112633308629</v>
       </c>
     </row>
   </sheetData>
@@ -8069,13 +8069,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>394.1362801165803</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q3" t="n">
         <v>113.7351914448925</v>
@@ -8303,7 +8303,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>605.4165828749999</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N6" t="n">
         <v>623.1450866466196</v>
@@ -8312,10 +8312,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8531,7 +8531,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8540,10 +8540,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>376.4077763449607</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>623.1450866466196</v>
+        <v>173.9082232290041</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8552,7 +8552,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8768,7 +8768,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8783,10 +8783,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>369.9141298177314</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>352.065200599033</v>
       </c>
       <c r="Q12" t="n">
         <v>87.64858173562192</v>
@@ -9008,10 +9008,10 @@
         <v>83.74785933339987</v>
       </c>
       <c r="K15" t="n">
-        <v>96.41651716248413</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>482.0924488944969</v>
+        <v>420.1560502616111</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
@@ -9026,7 +9026,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9242,10 +9242,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>83.74785933339987</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>96.4165171624843</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9254,7 +9254,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>295.5863090836201</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9482,16 +9482,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>78.99621350193966</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>419.34226594591</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>295.5863090836201</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9716,10 +9716,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>45.04618048305564</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>12.84888003398909</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9728,16 +9728,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>512.0210150597484</v>
+        <v>121.2376016970599</v>
       </c>
       <c r="P24" t="n">
-        <v>87.64284235113006</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.35882446992308</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9953,28 +9953,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>45.04618048305564</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>12.84888003398909</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>155.7336920137085</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>512.0210150597484</v>
+        <v>121.2376016970599</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.35882446992308</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10193,25 +10193,25 @@
         <v>45.04618048305564</v>
       </c>
       <c r="K30" t="n">
-        <v>12.84888003398909</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>155.7336920137084</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>414.0015992319183</v>
+        <v>142.0903513287055</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.35882446992308</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10427,19 +10427,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>45.04618048305564</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
         <v>12.84888003398909</v>
       </c>
       <c r="L33" t="n">
-        <v>155.7336920137084</v>
+        <v>422.2649636141717</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10448,7 +10448,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.35882446992308</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10667,22 +10667,22 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>225.9703562334597</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>512.0210150597484</v>
+        <v>121.2376016970599</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
         <v>273.1004740566038</v>
@@ -10901,10 +10901,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>45.04618048305564</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>12.84888003398909</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10913,16 +10913,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>121.2376016970599</v>
       </c>
       <c r="P39" t="n">
-        <v>87.64284235113006</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.35882446992308</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11144,16 +11144,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>336.7987789910934</v>
+        <v>477.8514167432161</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11311,7 +11311,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
-        <v>495.040235641569</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
         <v>418.3383206229274</v>
@@ -11375,25 +11375,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>45.04618048305564</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>12.84888003398909</v>
       </c>
       <c r="L45" t="n">
-        <v>331.9936416589465</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>545.5890975946746</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
         <v>273.1004740566038</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>229.0212380522577</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>204.5259564072622</v>
       </c>
     </row>
     <row r="12">
@@ -23421,10 +23421,10 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>150.4889240962943</v>
+        <v>101.4688878250409</v>
       </c>
       <c r="F13" t="n">
         <v>150.9558484244806</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.8632941134736</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V13" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>283.2948374677749</v>
@@ -23497,13 +23497,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>260.8229454594838</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S14" t="n">
         <v>176.6529755334452</v>
@@ -23554,16 +23554,16 @@
         <v>252.305926837283</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>378.2098390737216</v>
+        <v>158.4615243338157</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,25 +23658,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>138.4937516443436</v>
       </c>
       <c r="G16" t="n">
         <v>167.0592210434877</v>
       </c>
       <c r="H16" t="n">
-        <v>99.25247527639181</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>137.6086505120454</v>
       </c>
       <c r="J16" t="n">
-        <v>47.34362796447564</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>23.80540818138466</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S16" t="n">
         <v>208.5868485504649</v>
@@ -23715,7 +23715,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>228.939939463578</v>
@@ -23734,16 +23734,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>364.7435140675289</v>
+        <v>171.6489363530504</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23788,16 +23788,16 @@
         <v>220.4433659829895</v>
       </c>
       <c r="U17" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>389.6064368699203</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.496328663821743</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -23907,13 +23907,13 @@
         <v>167.0592210434877</v>
       </c>
       <c r="H19" t="n">
-        <v>156.2556384040709</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R19" t="n">
         <v>140.32293915197</v>
@@ -23946,7 +23946,7 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3089918374816</v>
+        <v>56.58345724993242</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
@@ -23977,10 +23977,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>15.93690642549171</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T20" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
@@ -24034,7 +24034,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>111.498548890393</v>
       </c>
       <c r="Y20" t="n">
         <v>389.6064368699203</v>
@@ -24144,13 +24144,13 @@
         <v>167.0592210434877</v>
       </c>
       <c r="H22" t="n">
-        <v>156.2556384040709</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>120.5065807525135</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U22" t="n">
         <v>284.3089918374816</v>
@@ -24192,10 +24192,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>146.3212231783646</v>
       </c>
     </row>
     <row r="23">
@@ -24211,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.7953871538391</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>317.7406176577446</v>
       </c>
       <c r="I23" t="n">
-        <v>45.19534398557823</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>152.5343787668044</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
@@ -24378,7 +24378,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>153.2022726584912</v>
@@ -24420,19 +24420,19 @@
         <v>228.6477529452049</v>
       </c>
       <c r="U25" t="n">
-        <v>244.2278427677724</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>73.76775248371339</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>211.8793839714449</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>12.37879162402731</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>17.64651753167264</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>59.58376009928396</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>127.2809062519456</v>
@@ -24651,22 +24651,22 @@
         <v>124.8812755756538</v>
       </c>
       <c r="S28" t="n">
-        <v>202.601877043025</v>
+        <v>3.467312865430017</v>
       </c>
       <c r="T28" t="n">
         <v>228.6477529452049</v>
       </c>
       <c r="U28" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
         <v>219.8148072196457</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>259.1992814467545</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>102.3502870782951</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,10 +24843,10 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
-        <v>118.5610107522676</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
         <v>150.9558484244806</v>
@@ -24888,19 +24888,19 @@
         <v>124.8812755756538</v>
       </c>
       <c r="S31" t="n">
-        <v>202.601877043025</v>
+        <v>20.12821152300251</v>
       </c>
       <c r="T31" t="n">
         <v>228.6477529452049</v>
       </c>
       <c r="U31" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>322.9165465223455</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>17.64651753167264</v>
       </c>
       <c r="S32" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>251.0272540344363</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>114.9340801680003</v>
+        <v>128.4054165207851</v>
       </c>
       <c r="E34" t="n">
         <v>150.4889240962943</v>
@@ -25089,10 +25089,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>127.2809062519456</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>124.8812755756538</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>228.6477529452049</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>26.5212025915925</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>190.339561989602</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -25317,16 +25317,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>22.37015658046872</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>153.2022726584912</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>208.2881372260711</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>232.997745005362</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>126.8477381573318</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>17.64651753167264</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>366.9115245491279</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>15.5095511370881</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>127.2809062519456</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>23.06343839047421</v>
@@ -25605,10 +25605,10 @@
         <v>228.6477529452049</v>
       </c>
       <c r="U40" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>35.78536937521784</v>
       </c>
       <c r="W40" t="n">
         <v>283.2948374677749</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>98.17677534521459</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>159.2066729054946</v>
       </c>
       <c r="T41" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>252.2446781610247</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>253.5165620255547</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,22 +25794,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>24.12423028480927</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7157954483816</v>
+        <v>40.71583184857094</v>
       </c>
       <c r="H43" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>23.06343839047421</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T43" t="n">
         <v>228.6477529452049</v>
@@ -25851,7 +25851,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>219.8148072196457</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>17.64651753167264</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>203.0724279962784</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>346.5208699366844</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,22 +26025,22 @@
         <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>127.2809062519456</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>81.16905769091906</v>
+        <v>176.7647457419187</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
@@ -26088,7 +26088,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>219.8148072196457</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>540208.4287767519</v>
+        <v>540208.4287767516</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>540208.4287767516</v>
+        <v>540208.4287767519</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>540208.4287767516</v>
+        <v>540208.4287767515</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>626673.4620615256</v>
+        <v>626673.4620615257</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>626673.4620615257</v>
+        <v>626673.4620615256</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>626673.4620615257</v>
+        <v>626673.4620615259</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>626673.4620615257</v>
+        <v>626673.4620615259</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>626673.4620615257</v>
+        <v>626673.4620615259</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>626673.4620615257</v>
+        <v>626673.4620615259</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>556527.4438582815</v>
+        <v>556527.4438582816</v>
       </c>
       <c r="C2" t="n">
-        <v>556527.4438582815</v>
+        <v>556527.4438582817</v>
       </c>
       <c r="D2" t="n">
-        <v>556527.4438582817</v>
+        <v>556527.4438582814</v>
       </c>
       <c r="E2" t="n">
-        <v>366067.087334709</v>
+        <v>366067.0873347088</v>
       </c>
       <c r="F2" t="n">
         <v>366067.087334709</v>
       </c>
       <c r="G2" t="n">
-        <v>366067.0873347091</v>
+        <v>366067.087334709</v>
       </c>
       <c r="H2" t="n">
         <v>366067.087334709</v>
       </c>
       <c r="I2" t="n">
-        <v>428254.5013784762</v>
+        <v>428254.5013784758</v>
       </c>
       <c r="J2" t="n">
+        <v>428254.5013784759</v>
+      </c>
+      <c r="K2" t="n">
+        <v>428254.5013784759</v>
+      </c>
+      <c r="L2" t="n">
         <v>428254.5013784758</v>
       </c>
-      <c r="K2" t="n">
-        <v>428254.5013784756</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>428254.5013784757</v>
+      </c>
+      <c r="N2" t="n">
+        <v>428254.5013784759</v>
+      </c>
+      <c r="O2" t="n">
         <v>428254.501378476</v>
       </c>
-      <c r="M2" t="n">
-        <v>428254.5013784761</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>428254.5013784758</v>
-      </c>
-      <c r="O2" t="n">
-        <v>428254.5013784757</v>
-      </c>
-      <c r="P2" t="n">
-        <v>428254.501378476</v>
       </c>
     </row>
     <row r="3">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208183.1070948235</v>
+        <v>208183.1070948236</v>
       </c>
       <c r="C4" t="n">
-        <v>208183.1070948235</v>
+        <v>208183.1070948236</v>
       </c>
       <c r="D4" t="n">
-        <v>208183.1070948235</v>
+        <v>208183.1070948236</v>
       </c>
       <c r="E4" t="n">
         <v>23150.42819261375</v>
@@ -26438,10 +26438,10 @@
         <v>23150.42819261375</v>
       </c>
       <c r="I4" t="n">
-        <v>21806.99263921604</v>
+        <v>21806.99263921603</v>
       </c>
       <c r="J4" t="n">
-        <v>21806.99263921604</v>
+        <v>21806.99263921603</v>
       </c>
       <c r="K4" t="n">
         <v>21806.99263921603</v>
@@ -26450,16 +26450,16 @@
         <v>21806.99263921603</v>
       </c>
       <c r="M4" t="n">
-        <v>21806.99263921604</v>
+        <v>21806.99263921603</v>
       </c>
       <c r="N4" t="n">
-        <v>21806.99263921604</v>
+        <v>21806.99263921603</v>
       </c>
       <c r="O4" t="n">
         <v>21806.99263921603</v>
       </c>
       <c r="P4" t="n">
-        <v>21806.99263921604</v>
+        <v>21806.99263921603</v>
       </c>
     </row>
     <row r="5">
@@ -26487,7 +26487,7 @@
         <v>40720.20246230468</v>
       </c>
       <c r="H5" t="n">
-        <v>40720.20246230467</v>
+        <v>40720.20246230468</v>
       </c>
       <c r="I5" t="n">
         <v>58322.96928678589</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106737.1174090192</v>
+        <v>106737.1174090193</v>
       </c>
       <c r="C6" t="n">
-        <v>282778.3021265466</v>
+        <v>282778.3021265467</v>
       </c>
       <c r="D6" t="n">
-        <v>282778.3021265468</v>
+        <v>282778.3021265464</v>
       </c>
       <c r="E6" t="n">
-        <v>192910.5900304894</v>
+        <v>186342.9915296763</v>
       </c>
       <c r="F6" t="n">
-        <v>302196.4566797905</v>
+        <v>295628.8581789777</v>
       </c>
       <c r="G6" t="n">
-        <v>302196.4566797907</v>
+        <v>295628.8581789777</v>
       </c>
       <c r="H6" t="n">
-        <v>302196.4566797906</v>
+        <v>295628.8581789777</v>
       </c>
       <c r="I6" t="n">
-        <v>145936.2531596086</v>
+        <v>141513.0482465115</v>
       </c>
       <c r="J6" t="n">
-        <v>210682.1086606968</v>
+        <v>206258.9037476002</v>
       </c>
       <c r="K6" t="n">
-        <v>348124.5394524737</v>
+        <v>343701.3345393772</v>
       </c>
       <c r="L6" t="n">
-        <v>348124.5394524741</v>
+        <v>343701.3345393772</v>
       </c>
       <c r="M6" t="n">
-        <v>320619.7027955777</v>
+        <v>316196.4978824806</v>
       </c>
       <c r="N6" t="n">
-        <v>348124.5394524739</v>
+        <v>343701.3345393772</v>
       </c>
       <c r="O6" t="n">
-        <v>348124.5394524739</v>
+        <v>343701.3345393774</v>
       </c>
       <c r="P6" t="n">
-        <v>348124.5394524741</v>
+        <v>343701.3345393772</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>95.01032947988872</v>
       </c>
       <c r="G3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="H3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="I3" t="n">
         <v>285.4554322205455</v>
@@ -26807,7 +26807,7 @@
         <v>635.6739684151827</v>
       </c>
       <c r="H4" t="n">
-        <v>635.6739684151826</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="I4" t="n">
         <v>856.9085668483224</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>221.2345984331398</v>
+        <v>221.2345984331397</v>
       </c>
       <c r="J4" t="n">
         <v>525.3032012649903</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90.49891500262754</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>185.3162150911216</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
@@ -27441,7 +27441,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>19.3231541863918</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>58.13458268863755</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5411742405149</v>
+        <v>49.99984774536388</v>
       </c>
       <c r="E4" t="n">
         <v>150.4889240962943</v>
@@ -27551,7 +27551,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
@@ -27590,13 +27590,13 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>220.2032374086599</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>206.6079864004244</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -27678,10 +27678,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>240.8063062624254</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27706,13 +27706,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>18.29295646156856</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>95.13598719576714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
@@ -27791,13 +27791,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>9.957916258466241</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>14.58039074617781</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>33.47807514598969</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>2.309895601810553</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27940,19 +27940,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>108.2594887509474</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
@@ -28034,7 +28034,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>33.8988124874833</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -28070,10 +28070,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>52.83610400431124</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -32229,7 +32229,7 @@
         <v>0.3819510732859845</v>
       </c>
       <c r="H17" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I17" t="n">
         <v>14.72516875285793</v>
@@ -32238,37 +32238,37 @@
         <v>32.41761990630636</v>
       </c>
       <c r="K17" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L17" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M17" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N17" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O17" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P17" t="n">
         <v>54.92504177736622</v>
       </c>
       <c r="Q17" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R17" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S17" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T17" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>1.973705146365236</v>
       </c>
       <c r="I18" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J18" t="n">
         <v>19.30771233326682</v>
@@ -32320,10 +32320,10 @@
         <v>32.99995566472701</v>
       </c>
       <c r="L18" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M18" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N18" t="n">
         <v>53.1511087530936</v>
@@ -32344,7 +32344,7 @@
         <v>3.795931559880457</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U18" t="n">
         <v>0.01344485794526728</v>
@@ -32399,10 +32399,10 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L19" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M19" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N19" t="n">
         <v>26.21817829729455</v>
@@ -32414,19 +32414,19 @@
         <v>20.72159710492523</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R19" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S19" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>0.3819510732859845</v>
       </c>
       <c r="H20" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I20" t="n">
         <v>14.72516875285793</v>
@@ -32475,37 +32475,37 @@
         <v>32.41761990630636</v>
       </c>
       <c r="K20" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L20" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M20" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N20" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O20" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P20" t="n">
         <v>54.92504177736622</v>
       </c>
       <c r="Q20" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R20" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S20" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T20" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>1.973705146365236</v>
       </c>
       <c r="I21" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J21" t="n">
         <v>19.30771233326682</v>
@@ -32557,10 +32557,10 @@
         <v>32.99995566472701</v>
       </c>
       <c r="L21" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M21" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N21" t="n">
         <v>53.1511087530936</v>
@@ -32581,7 +32581,7 @@
         <v>3.795931559880457</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U21" t="n">
         <v>0.01344485794526728</v>
@@ -32636,10 +32636,10 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L22" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M22" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N22" t="n">
         <v>26.21817829729455</v>
@@ -32651,19 +32651,19 @@
         <v>20.72159710492523</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R22" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S22" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34789,13 +34789,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>287.421139048872</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35023,7 +35023,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>489.93268031336</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N6" t="n">
         <v>516.4299455789112</v>
@@ -35032,10 +35032,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35260,10 +35260,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>260.9238737833207</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>516.4299455789112</v>
+        <v>67.19308216129573</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35272,7 +35272,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.8085946144125</v>
@@ -35503,10 +35503,10 @@
         <v>569.5810543320048</v>
       </c>
       <c r="O12" t="n">
-        <v>302.6775618037478</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P12" t="n">
-        <v>344.1715415558448</v>
+        <v>282.2351429229594</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>17.42030366054446</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L15" t="n">
-        <v>413.8895281620462</v>
+        <v>351.9531295291604</v>
       </c>
       <c r="M15" t="n">
         <v>541.7133098798994</v>
@@ -35746,7 +35746,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q15" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K18" t="n">
-        <v>17.42030366054463</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L18" t="n">
         <v>413.8895281620462</v>
@@ -35974,7 +35974,7 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N18" t="n">
-        <v>569.5810543320048</v>
+        <v>242.0222767690054</v>
       </c>
       <c r="O18" t="n">
         <v>444.7844470457648</v>
@@ -36059,7 +36059,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P19" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>80.17048660913161</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L21" t="n">
-        <v>351.1393452134593</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M21" t="n">
         <v>541.7133098798994</v>
       </c>
       <c r="N21" t="n">
-        <v>569.5810543320048</v>
+        <v>242.0222767690054</v>
       </c>
       <c r="O21" t="n">
         <v>444.7844470457648</v>
@@ -36296,7 +36296,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P22" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>118.8721654594759</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>330.9559280823631</v>
       </c>
       <c r="L24" t="n">
         <v>502.8327810976709</v>
@@ -36448,16 +36448,16 @@
         <v>645.5058908735573</v>
       </c>
       <c r="N24" t="n">
-        <v>676.1207161001012</v>
+        <v>52.97562945348159</v>
       </c>
       <c r="O24" t="n">
-        <v>542.2474233511649</v>
+        <v>151.4640099884765</v>
       </c>
       <c r="P24" t="n">
-        <v>96.03541564791232</v>
+        <v>422.3941725287006</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>118.8721654594759</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>330.9559280823631</v>
       </c>
       <c r="L27" t="n">
-        <v>176.4740242168825</v>
+        <v>502.8327810976709</v>
       </c>
       <c r="M27" t="n">
         <v>645.5058908735573</v>
       </c>
       <c r="N27" t="n">
-        <v>676.1207161001012</v>
+        <v>52.97562945348159</v>
       </c>
       <c r="O27" t="n">
-        <v>542.2474233511649</v>
+        <v>151.4640099884765</v>
       </c>
       <c r="P27" t="n">
         <v>422.3941725287006</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>330.9559280823631</v>
       </c>
       <c r="L30" t="n">
-        <v>176.4740242168824</v>
+        <v>502.8327810976709</v>
       </c>
       <c r="M30" t="n">
         <v>645.5058908735573</v>
       </c>
       <c r="N30" t="n">
-        <v>676.1207161001012</v>
+        <v>52.97562945348159</v>
       </c>
       <c r="O30" t="n">
         <v>542.2474233511649</v>
       </c>
       <c r="P30" t="n">
-        <v>422.3941725287006</v>
+        <v>150.4829246254877</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>118.8721654594759</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4740242168824</v>
+        <v>443.0052958173457</v>
       </c>
       <c r="M33" t="n">
         <v>645.5058908735573</v>
       </c>
       <c r="N33" t="n">
-        <v>676.1207161001012</v>
+        <v>52.97562945348159</v>
       </c>
       <c r="O33" t="n">
         <v>542.2474233511649</v>
@@ -37168,7 +37168,7 @@
         <v>422.3941725287006</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>118.8721654594759</v>
       </c>
       <c r="K36" t="n">
-        <v>213.1214761994706</v>
+        <v>330.9559280823631</v>
       </c>
       <c r="L36" t="n">
-        <v>20.74033220317398</v>
+        <v>502.8327810976709</v>
       </c>
       <c r="M36" t="n">
         <v>645.5058908735573</v>
       </c>
       <c r="N36" t="n">
-        <v>676.1207161001012</v>
+        <v>52.97562945348159</v>
       </c>
       <c r="O36" t="n">
-        <v>542.2474233511649</v>
+        <v>151.4640099884765</v>
       </c>
       <c r="P36" t="n">
-        <v>8.39257329678226</v>
+        <v>422.3941725287006</v>
       </c>
       <c r="Q36" t="n">
         <v>237.7416495866808</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>118.8721654594759</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>330.9559280823631</v>
       </c>
       <c r="L39" t="n">
         <v>502.8327810976709</v>
@@ -37633,16 +37633,16 @@
         <v>645.5058908735573</v>
       </c>
       <c r="N39" t="n">
-        <v>676.1207161001012</v>
+        <v>52.97562945348159</v>
       </c>
       <c r="O39" t="n">
-        <v>542.2474233511649</v>
+        <v>151.4640099884765</v>
       </c>
       <c r="P39" t="n">
-        <v>96.03541564791232</v>
+        <v>422.3941725287006</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>330.9559280823631</v>
       </c>
       <c r="L42" t="n">
-        <v>20.74033220317398</v>
+        <v>502.8327810976709</v>
       </c>
       <c r="M42" t="n">
         <v>645.5058908735573</v>
       </c>
       <c r="N42" t="n">
-        <v>676.1207161001012</v>
+        <v>52.97562945348159</v>
       </c>
       <c r="O42" t="n">
-        <v>367.02518728251</v>
+        <v>508.0778250346327</v>
       </c>
       <c r="P42" t="n">
         <v>422.3941725287006</v>
@@ -38031,7 +38031,7 @@
         <v>586.9148027781935</v>
       </c>
       <c r="O44" t="n">
-        <v>501.4363090345116</v>
+        <v>501.4363090345115</v>
       </c>
       <c r="P44" t="n">
         <v>395.482005934001</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>118.8721654594759</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>352.7339738621205</v>
+        <v>502.8327810976709</v>
       </c>
       <c r="M45" t="n">
-        <v>645.5058908735573</v>
+        <v>585.678405593232</v>
       </c>
       <c r="N45" t="n">
-        <v>676.1207161001012</v>
+        <v>52.97562945348159</v>
       </c>
       <c r="O45" t="n">
         <v>542.2474233511649</v>
       </c>
       <c r="P45" t="n">
-        <v>8.39257329678226</v>
+        <v>422.3941725287006</v>
       </c>
       <c r="Q45" t="n">
         <v>237.7416495866808</v>
